--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1580</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1200</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>232.34</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>549</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>186.27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>155.34</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW960</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>186.27</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1580</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>1200</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>232.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>549</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>186.27</v>
+        <v>155.34</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1580</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1200</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>232.34</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>186.27</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>155.34</v>
+        <v>186.27</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1580</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>232.34</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>549</v>
+        <v>155.34</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>186.27</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1580</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>232.34</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>549</v>
+        <v>155.34</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>186.27</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>155.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW960</t>
+          <t>BOVAW940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1200</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>232.34</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>186.27</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>155.34</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW960</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.27</v>
+        <v>155.34</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW950</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW940</t>
+          <t>BOVAW950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1200</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>232.34</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>186.27</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>155.34</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW960</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.27</v>
+        <v>155.34</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW950</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1580</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>1200</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>232.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>549</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>186.27</v>
+        <v>155.34</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>155.34</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW960</t>
+          <t>BOVAW950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1580</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1200</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>232.34</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>186.27</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>155.34</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW960</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>155.34</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1580</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1200</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>232.34</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>155.34</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>549</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>186.27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,346 +463,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BOVAW104</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>104</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BOVAW103</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>103</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BOVAW102</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>102</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BOVAW101</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>101</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>232.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BOVAW100</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BOVAW990</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>99</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13</v>
-      </c>
-      <c r="H7" t="n">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BOVAW980</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>186.27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BOVAW970</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>97</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>155.34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BOVAW960</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>96</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BOVA11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BOVAW950</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>95</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,346 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BOVAX103</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4084.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BOVAX102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>103</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5202.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BOVAX101</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>102</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>146.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BOVAX3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>101</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>400.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BOVAX100</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4330.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BOVAX995</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BOVAX990</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>99</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1682.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BOVAX985</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BOVAX980</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>724.9299999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BOVA11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BOVAX975</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAX103</t>
+          <t>BOVAX102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>4084.16</v>
+        <v>314.04</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAX102</t>
+          <t>BOVAX101</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>5202.68</v>
+        <v>94.02</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAX101</t>
+          <t>BOVAX3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>146.04</v>
+        <v>118.02</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAX3</t>
+          <t>BOVAX100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>400.02</v>
+        <v>751.28</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAX100</t>
+          <t>BOVAX995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4330.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAX995</t>
+          <t>BOVAX990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>840.3</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAX990</t>
+          <t>BOVAX985</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="H8" t="n">
-        <v>1682.64</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAX985</t>
+          <t>BOVAX980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v/>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v/>
+        <v>940</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAX980</t>
+          <t>BOVAX975</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>724.9299999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAX975</t>
+          <t>BOVAX970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAX102</t>
+          <t>BOVAX101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>314.04</v>
+        <v>244.83</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAX101</t>
+          <t>BOVAX3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>94.02</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAX3</t>
+          <t>BOVAX100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>118.02</v>
+        <v>231.33</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAX100</t>
+          <t>BOVAX995</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>751.28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAX995</t>
+          <t>BOVAX990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAX990</t>
+          <t>BOVAX985</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H7" t="n">
-        <v>840.3</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAX985</t>
+          <t>BOVAX980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAX980</t>
+          <t>BOVAX975</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>940</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAX975</t>
+          <t>BOVAX970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>518.48</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAX970</t>
+          <t>BOVAX965</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H11" t="n">
-        <v>800</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAX101</t>
+          <t>BOVAX102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>244.83</v>
+        <v>103.99</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAX3</t>
+          <t>BOVAX101</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>210</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAX100</t>
+          <t>BOVAX3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>231.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAX995</t>
+          <t>BOVAX100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>655.03</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAX990</t>
+          <t>BOVAX995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>900</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAX985</t>
+          <t>BOVAX990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v/>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAX980</t>
+          <t>BOVAX985</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAX975</t>
+          <t>BOVAX980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAX970</t>
+          <t>BOVAX975</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>518.48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAX965</t>
+          <t>BOVAX970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v/>
+        <v>518.48</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAX102</t>
+          <t>BOVAX100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>103.99</v>
+        <v>3774.16</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAX101</t>
+          <t>BOVAX995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>99.5</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>61.15</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAX3</t>
+          <t>BOVAX990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAX100</t>
+          <t>BOVAX985</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v/>
       </c>
       <c r="H5" t="n">
-        <v>655.03</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAX995</t>
+          <t>BOVAX980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>240.01</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAX990</t>
+          <t>BOVAX975</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAX985</t>
+          <t>BOVAX970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v/>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v/>
+        <v>518.48</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAX980</t>
+          <t>BOVAX965</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>96.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAX975</t>
+          <t>BOVAX960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>621</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>670.61</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAX970</t>
+          <t>BOVAX955</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>518.48</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAX100</t>
+          <t>BOVAM100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,13 +488,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>3774.16</v>
+        <v>11521.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAX995</t>
+          <t>BOVAM995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,13 +522,13 @@
         <v>99.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03</v>
+        <v>1521.6</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAX990</t>
+          <t>BOVAM990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +556,13 @@
         <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>8442.68</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAX985</t>
+          <t>BOVAM985</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>98.5</v>
       </c>
       <c r="F5" t="n">
-        <v/>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v/>
+        <v>46.22</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAX980</t>
+          <t>BOVAM980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -624,13 +624,13 @@
         <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>240.01</v>
+        <v>860.37</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAX975</t>
+          <t>BOVAM975</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -658,13 +658,13 @@
         <v>97.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3897.8</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAX970</t>
+          <t>BOVAM970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,13 +692,13 @@
         <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>518.48</v>
+        <v>12250</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAX965</t>
+          <t>BOVAM960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v/>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v/>
+        <v>24280</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAX960</t>
+          <t>BOVAM950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>621</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>670.61</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAX955</t>
+          <t>BOVAM940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>21176</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAM100</t>
+          <t>BOVAM101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" t="n">
         <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>11521.43</v>
+        <v>2674.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAM995</t>
+          <t>BOVAM100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
         <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H3" t="n">
-        <v>1521.6</v>
+        <v>32541.96</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAM990</t>
+          <t>BOVAM995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>8442.68</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAM985</t>
+          <t>BOVAM990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>46.22</v>
+        <v>5616.52</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAM980</t>
+          <t>BOVAM985</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>860.37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAM975</t>
+          <t>BOVAM980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
-        <v>3897.8</v>
+        <v>21709.68</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAM970</t>
+          <t>BOVAM975</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>12250</v>
+        <v>6088.98</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAM960</t>
+          <t>BOVAM970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>24280</v>
+        <v>35968.8</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAM950</t>
+          <t>BOVAM960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>2840</v>
+        <v>10900.65</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAM940</t>
+          <t>BOVAM950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>21176</v>
+        <v>3022.4</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAM101</t>
+          <t>BOVAM100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="H2" t="n">
-        <v>2674.8</v>
+        <v>23826.79</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAM100</t>
+          <t>BOVAM995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>32541.96</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAM995</t>
+          <t>BOVAM990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="H4" t="n">
-        <v>5250</v>
+        <v>9512.5</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAM990</t>
+          <t>BOVAM985</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5616.52</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAM985</t>
+          <t>BOVAM980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAM980</t>
+          <t>BOVAM975</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>21709.68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAM975</t>
+          <t>BOVAM970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>6088.98</v>
+        <v>6314.4</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAM970</t>
+          <t>BOVAM960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>35968.8</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAM960</t>
+          <t>BOVAM950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>10900.65</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAM950</t>
+          <t>BOVAM940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>3022.4</v>
+        <v>9568.059999999999</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>23826.79</v>
+        <v>7559.99</v>
       </c>
     </row>
     <row r="3">
@@ -556,13 +556,13 @@
         <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>9512.5</v>
+        <v>2289.7</v>
       </c>
     </row>
     <row r="5">
@@ -624,13 +624,13 @@
         <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>227</v>
+        <v>2176.68</v>
       </c>
     </row>
     <row r="7">
@@ -692,13 +692,13 @@
         <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>6314.4</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
@@ -760,13 +760,13 @@
         <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>684</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>9568.059999999999</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAM100</t>
+          <t>BOVAM995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>7559.99</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAM995</t>
+          <t>BOVAM990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>560</v>
+        <v>883.3200000000001</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAM990</t>
+          <t>BOVAM985</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2289.7</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAM985</t>
+          <t>BOVAM980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>12.9</v>
+        <v>1620.03</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAM980</t>
+          <t>BOVAM975</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2176.68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAM975</t>
+          <t>BOVAM970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>1590.02</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAM970</t>
+          <t>BOVAM960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAM960</t>
+          <t>BOVAM950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAM950</t>
+          <t>BOVAM940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAM940</t>
+          <t>BOVAM930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -522,13 +522,13 @@
         <v>99</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>883.3200000000001</v>
+        <v>2042.62</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +590,13 @@
         <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1620.03</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="6">
@@ -658,13 +658,13 @@
         <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1590.02</v>
+        <v>420.02</v>
       </c>
     </row>
     <row r="8">
@@ -726,13 +726,13 @@
         <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4000</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -522,13 +522,13 @@
         <v>99</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>2042.62</v>
+        <v>12094.03</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>98.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1500</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2060</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -658,13 +658,13 @@
         <v>97</v>
       </c>
       <c r="F7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.02</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>420.02</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>96</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>7200</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
         <v>15</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3220</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>12094.03</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>98.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>1100.01</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>3500</v>
+        <v>3096.03</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>1082.3</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>5.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>120</v>
+        <v>31.27</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAM995</t>
+          <t>BOVAM100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>2220.01</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAM990</t>
+          <t>BOVAM995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>40.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAM985</t>
+          <t>BOVAM990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAM980</t>
+          <t>BOVAM985</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>209.02</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAM975</t>
+          <t>BOVAM980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>249.51</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAM970</t>
+          <t>BOVAM975</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1100.01</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAM960</t>
+          <t>BOVAM970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3096.03</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAM950</t>
+          <t>BOVAM960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1082.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAM940</t>
+          <t>BOVAM950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>1082.3</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAM930</t>
+          <t>BOVAM940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>31.27</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
